--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,10 +36,19 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>нет данных</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -53,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,27 +77,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -148,38 +130,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -487,85 +454,84 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>43865</v>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>43805</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="6">
-        <v>504.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>23750</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="C3" s="3">
+        <v>8124</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>43844</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -575,18 +541,25 @@
         <v>23983</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D13" si="0">C4-C6</f>
+        <f>C4-C2</f>
         <v>233</v>
       </c>
       <c r="E4" s="3">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>D4*E4</f>
         <v>1046.17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <f>SUM(F4,F5)</f>
+        <v>1179.8200000000002</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1179.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -595,364 +568,137 @@
         <v>8179</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5" si="0">C5-C3</f>
         <v>55</v>
       </c>
       <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>D5*E5</f>
         <v>133.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43805</v>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>43865</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>23750</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>4.49</v>
       </c>
-      <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>574.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <v>504.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>8124</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>80.190000000000012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43776</v>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>43893</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>23622</v>
+        <v>24203</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>174</v>
+        <f>C8-C4</f>
+        <v>220</v>
       </c>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F13" si="1">D8*E8</f>
-        <v>781.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>987.80000000000007</v>
+      </c>
+      <c r="G8" s="5">
+        <f>SUM(F8,F9)</f>
+        <v>1094.72</v>
+      </c>
+      <c r="H8" s="5">
+        <v>590.20000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>8091</v>
+        <v>8223</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f>C9-C5</f>
+        <v>44</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>131.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43745</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>23448</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>414</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>1858.8600000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>106.92</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(G2:G9)</f>
+        <v>2274.54</v>
+      </c>
+      <c r="H10" s="5">
+        <f>SUM(H2:H9)</f>
+        <v>2274.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8037</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>388.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43711</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>23034</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>906.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>7877</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>133.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>43683</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>22832</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C17</f>
-        <v>245</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>1100.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7822</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C18</f>
-        <v>39</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>94.77000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>43683</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12">
-        <v>18.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>43643</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>22587</v>
-      </c>
-      <c r="D17" s="3">
-        <f>C17-C19</f>
-        <v>131</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.57</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" ref="F17:F22" si="2">D17*E17</f>
-        <v>598.67000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>7783</v>
-      </c>
-      <c r="D18" s="3">
-        <f>C18-C20</f>
-        <v>19</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="2"/>
-        <v>45.410000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>43620</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>22456</v>
-      </c>
-      <c r="D19" s="3">
-        <f>C19-C21</f>
-        <v>242</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.57</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="2"/>
-        <v>1105.94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>7764</v>
-      </c>
-      <c r="D20" s="3">
-        <f>C20-C22</f>
-        <v>80</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="2"/>
-        <v>191.20000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43592</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>22214</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4.57</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>7684</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -454,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,32 +673,83 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
+      <c r="A10" s="7">
+        <v>43934</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>24397</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C8</f>
+        <v>194</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
+        <v>871.06000000000006</v>
       </c>
       <c r="G10" s="5">
-        <f>SUM(G2:G9)</f>
-        <v>2274.54</v>
+        <f>SUM(F10,F11)</f>
+        <v>958.54000000000008</v>
       </c>
       <c r="H10" s="5">
-        <f>SUM(H2:H9)</f>
-        <v>2274.54</v>
+        <v>958.54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8259</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C9</f>
+        <v>36</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>87.48</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(G2:G11)</f>
+        <v>3233.08</v>
+      </c>
+      <c r="H12" s="5">
+        <f>SUM(H2:H11)</f>
+        <v>3233.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -454,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,32 +724,86 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
+      <c r="A12" s="7">
+        <v>43973</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>24751</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C10</f>
+        <v>354</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f>D12*E12</f>
+        <v>1589.46</v>
       </c>
       <c r="G12" s="5">
-        <f>SUM(G2:G11)</f>
-        <v>3233.08</v>
+        <f>SUM(F12,F13)</f>
+        <v>1927.23</v>
       </c>
       <c r="H12" s="5">
-        <f>SUM(H2:H11)</f>
-        <v>3233.08</v>
+        <v>1928.45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8398</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-C11</f>
+        <v>139</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f>D13*E13</f>
+        <v>337.77000000000004</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(G2:G13)</f>
+        <v>5160.3099999999995</v>
+      </c>
+      <c r="H14" s="5">
+        <f>SUM(H2:H13)</f>
+        <v>5161.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <f>SUM(H14,-G14)</f>
+        <v>1.2200000000002547</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -454,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" ref="F8:F13" si="1">D8*E8</f>
         <v>987.80000000000007</v>
       </c>
       <c r="G8" s="5">
@@ -666,7 +666,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>106.92</v>
       </c>
       <c r="G9" s="5"/>
@@ -690,7 +690,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
+        <f t="shared" si="1"/>
         <v>871.06000000000006</v>
       </c>
       <c r="G10" s="5">
@@ -717,7 +717,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="1"/>
         <v>87.48</v>
       </c>
       <c r="G11" s="5"/>
@@ -741,7 +741,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="5">
-        <f>D12*E12</f>
+        <f t="shared" si="1"/>
         <v>1589.46</v>
       </c>
       <c r="G12" s="5">
@@ -768,41 +768,92 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="5">
-        <f>D13*E13</f>
+        <f t="shared" si="1"/>
         <v>337.77000000000004</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
+      <c r="A14" s="7">
+        <v>44008</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>24951</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14-C12</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="2">D14*E14</f>
+        <v>898</v>
       </c>
       <c r="G14" s="5">
-        <f>SUM(G2:G13)</f>
-        <v>5160.3099999999995</v>
+        <f>SUM(F14,F15)</f>
+        <v>1075.3900000000001</v>
       </c>
       <c r="H14" s="5">
-        <f>SUM(H2:H13)</f>
-        <v>5161.53</v>
+        <v>1219.07</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8471</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C13</f>
+        <v>73</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>177.39000000000001</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <f>SUM(H14,-G14)</f>
-        <v>1.2200000000002547</v>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(G2:G15)</f>
+        <v>6235.7</v>
+      </c>
+      <c r="H16" s="5">
+        <f>SUM(H2:H15)</f>
+        <v>6380.5999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <f>SUM(H16,-G16)</f>
+        <v>144.89999999999964</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -454,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
         <v>24397</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C8</f>
+        <f t="shared" ref="D10:D17" si="2">C10-C8</f>
         <v>194</v>
       </c>
       <c r="E10" s="3">
@@ -710,7 +710,7 @@
         <v>8259</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C9</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="E11" s="3">
@@ -734,7 +734,7 @@
         <v>24751</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-C10</f>
+        <f t="shared" si="2"/>
         <v>354</v>
       </c>
       <c r="E12" s="3">
@@ -761,7 +761,7 @@
         <v>8398</v>
       </c>
       <c r="D13" s="3">
-        <f>C13-C11</f>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="E13" s="3">
@@ -782,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>24951</v>
+        <v>24983</v>
       </c>
       <c r="D14" s="3">
-        <f>C14-C12</f>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>232</v>
       </c>
       <c r="E14" s="3">
         <v>4.49</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="2">D14*E14</f>
-        <v>898</v>
+        <f t="shared" ref="F14:F15" si="3">D14*E14</f>
+        <v>1041.68</v>
       </c>
       <c r="G14" s="5">
         <f>SUM(F14,F15)</f>
-        <v>1075.3900000000001</v>
+        <v>1219.0700000000002</v>
       </c>
       <c r="H14" s="5">
         <v>1219.07</v>
@@ -812,48 +812,99 @@
         <v>8471</v>
       </c>
       <c r="D15" s="3">
-        <f>C15-C13</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="E15" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>177.39000000000001</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="7">
+        <v>44036</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>25104</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="4">D16*E16</f>
+        <v>543.29000000000008</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(F16,F17)</f>
+        <v>604.04000000000008</v>
+      </c>
+      <c r="H16" s="5">
+        <v>633.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8496</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>60.750000000000007</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G18" s="5">
         <f>SUM(G2:G15)</f>
-        <v>6235.7</v>
-      </c>
-      <c r="H16" s="5">
+        <v>6379.3799999999992</v>
+      </c>
+      <c r="H18" s="5">
         <f>SUM(H2:H15)</f>
         <v>6380.5999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
-        <f>SUM(H16,-G16)</f>
-        <v>144.89999999999964</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <f>SUM(H18,-G18)</f>
+        <v>1.2200000000002547</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -454,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F21" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
         <v>24397</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D17" si="2">C10-C8</f>
+        <f t="shared" ref="D10:D15" si="2">C10-C8</f>
         <v>194</v>
       </c>
       <c r="E10" s="3">
@@ -792,7 +792,7 @@
         <v>4.49</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="3">D14*E14</f>
+        <f t="shared" ref="F14:F17" si="3">D14*E14</f>
         <v>1041.68</v>
       </c>
       <c r="G14" s="5">
@@ -836,19 +836,19 @@
         <v>25104</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
+        <f>C16-C14</f>
         <v>121</v>
       </c>
       <c r="E16" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ref="F16:F17" si="4">D16*E16</f>
-        <v>543.29000000000008</v>
+        <f t="shared" si="3"/>
+        <v>569.91</v>
       </c>
       <c r="G16" s="5">
         <f>SUM(F16,F17)</f>
-        <v>604.04000000000008</v>
+        <v>633.66</v>
       </c>
       <c r="H16" s="5">
         <v>633.66</v>
@@ -863,48 +863,150 @@
         <v>8496</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="2"/>
+        <f>C17-C15</f>
         <v>25</v>
       </c>
       <c r="E17" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="4"/>
-        <v>60.750000000000007</v>
+        <f t="shared" si="3"/>
+        <v>63.749999999999993</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
+      <c r="A18" s="7">
+        <v>44075</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>25369</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18-C16</f>
+        <v>265</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="4">D18*E18</f>
+        <v>1248.1500000000001</v>
       </c>
       <c r="G18" s="5">
-        <f>SUM(G2:G15)</f>
-        <v>6379.3799999999992</v>
+        <f>SUM(F18,F19)</f>
+        <v>1429.2</v>
       </c>
       <c r="H18" s="5">
-        <f>SUM(H2:H15)</f>
-        <v>6380.5999999999995</v>
+        <v>1429.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8567</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19-C17</f>
+        <v>71</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="4"/>
+        <v>181.04999999999998</v>
+      </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <f>SUM(H18,-G18)</f>
-        <v>1.2200000000002547</v>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>44096</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>25615</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-C18</f>
+        <v>246</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="5">D20*E20</f>
+        <v>1158.6600000000001</v>
+      </c>
+      <c r="G20" s="5">
+        <f>SUM(F20,F21)</f>
+        <v>1406.01</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1406.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8664</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21-C19</f>
+        <v>97</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="5"/>
+        <v>247.35</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <f>SUM(G2:G19)</f>
+        <v>8442.24</v>
+      </c>
+      <c r="H22" s="5">
+        <f>SUM(H2:H19)</f>
+        <v>8443.4599999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
+        <f>SUM(H22,-G22)</f>
+        <v>1.2199999999993452</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -454,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F20:F21"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
         <v>25104</v>
       </c>
       <c r="D16" s="3">
-        <f>C16-C14</f>
+        <f t="shared" ref="D16:D23" si="4">C16-C14</f>
         <v>121</v>
       </c>
       <c r="E16" s="3">
@@ -863,7 +863,7 @@
         <v>8496</v>
       </c>
       <c r="D17" s="3">
-        <f>C17-C15</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="E17" s="3">
@@ -887,14 +887,14 @@
         <v>25369</v>
       </c>
       <c r="D18" s="3">
-        <f>C18-C16</f>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" ref="F18:F19" si="4">D18*E18</f>
+        <f t="shared" ref="F18:F19" si="5">D18*E18</f>
         <v>1248.1500000000001</v>
       </c>
       <c r="G18" s="5">
@@ -914,14 +914,14 @@
         <v>8567</v>
       </c>
       <c r="D19" s="3">
-        <f>C19-C17</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>181.04999999999998</v>
       </c>
       <c r="G19" s="5"/>
@@ -938,14 +938,14 @@
         <v>25615</v>
       </c>
       <c r="D20" s="3">
-        <f>C20-C18</f>
+        <f t="shared" si="4"/>
         <v>246</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" ref="F20:F21" si="5">D20*E20</f>
+        <f t="shared" ref="F20:F21" si="6">D20*E20</f>
         <v>1158.6600000000001</v>
       </c>
       <c r="G20" s="5">
@@ -965,47 +965,98 @@
         <v>8664</v>
       </c>
       <c r="D21" s="3">
-        <f>C21-C19</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>247.35</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5" t="s">
+      <c r="A22" s="7">
+        <v>44125</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>25865</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="7">D22*E22</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G22" s="5">
+        <f>SUM(F22,F23)</f>
+        <v>1335.6</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1335.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8726</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="7"/>
+        <v>158.1</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G24" s="5">
         <f>SUM(G2:G19)</f>
         <v>8442.24</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H24" s="5">
         <f>SUM(H2:H19)</f>
         <v>8443.4599999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5">
-        <f>SUM(H22,-G22)</f>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <f>SUM(H24,-G24)</f>
         <v>1.2199999999993452</v>
       </c>
     </row>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -454,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1030,33 +1030,84 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5" t="s">
-        <v>10</v>
+      <c r="A24" s="7">
+        <v>44161</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>26168</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="8">C24-C22</f>
+        <v>303</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="9">D24*E24</f>
+        <v>1427.1299999999999</v>
       </c>
       <c r="G24" s="5">
-        <f>SUM(G2:G19)</f>
-        <v>8442.24</v>
+        <f>SUM(F24,F25)</f>
+        <v>1699.9799999999998</v>
       </c>
       <c r="H24" s="5">
-        <f>SUM(H2:H19)</f>
-        <v>8443.4599999999991</v>
+        <v>1699.98</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8833</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="9"/>
+        <v>272.84999999999997</v>
+      </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <f>SUM(H24,-G24)</f>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5">
+        <f>SUM(G2:G25)</f>
+        <v>12883.83</v>
+      </c>
+      <c r="H26" s="5">
+        <f>SUM(H2:H25)</f>
+        <v>12885.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
+        <f>SUM(H26,-G26)</f>
         <v>1.2199999999993452</v>
       </c>
     </row>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -92,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -154,6 +160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,31 +485,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44190</v>
+        <v>43856</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>26402</v>
+        <v>26607</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C4)</f>
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
-        <v>1102.1400000000001</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>965.55</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
       <c r="H2" s="8">
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -511,49 +518,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>8889</v>
+        <v>8943</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C5)</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>142.79999999999998</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44161</v>
+      <c r="A4" s="12">
+        <v>44190</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>26168</v>
+        <v>26402</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D7" si="1">SUM(C4,-C6)</f>
-        <v>303</v>
+        <f>SUM(C4,-C6)</f>
+        <v>234</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>1427.1299999999999</v>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G6" si="2">SUM(F4,F5)</f>
-        <v>1699.9799999999998</v>
+        <f>SUM(F4,F5)</f>
+        <v>1244.94</v>
       </c>
       <c r="H4" s="8">
-        <v>1699.98</v>
+        <v>1244.94</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -562,88 +569,101 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>8833</v>
+        <v>8889</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>107</v>
+        <f>SUM(C5,-C7)</f>
+        <v>56</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>272.84999999999997</v>
+        <f t="shared" si="1"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44125</v>
+        <v>44161</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>25865</v>
+        <v>26168</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <f t="shared" ref="D6:D9" si="2">SUM(C6,-C8)</f>
+        <v>303</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>1177.5</v>
+        <f t="shared" si="1"/>
+        <v>1427.1299999999999</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="2"/>
-        <v>1335.6</v>
+        <f t="shared" ref="G6:G8" si="3">SUM(F6,F7)</f>
+        <v>1699.9799999999998</v>
       </c>
       <c r="H6" s="8">
-        <v>1335.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1699.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>8726</v>
+        <v>8833</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f t="shared" si="2"/>
+        <v>107</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>158.1</v>
+        <f t="shared" si="1"/>
+        <v>272.84999999999997</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44096</v>
+        <v>44125</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>25615</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+        <v>25865</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="3"/>
+        <v>1335.6</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1335.6</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -651,18 +671,32 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>8664</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3"/>
+        <v>8726</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>158.1</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>25615</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="8"/>
@@ -671,49 +705,73 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8664</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -485,31 +485,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>43856</v>
+        <v>44306</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>26607</v>
+        <v>26964</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(C2,-C4)</f>
-        <v>205</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>965.55</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1103.25</v>
+        <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>1103.25</v>
+        <v>610.29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -518,49 +518,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>8943</v>
+        <v>9070</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>137.69999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44190</v>
+        <v>44280</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>26402</v>
+        <v>26964</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
-        <v>234</v>
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
+        <v>246</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>1102.1400000000001</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>1158.6600000000001</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1244.94</v>
+        <v>1377.96</v>
       </c>
       <c r="H4" s="8">
-        <v>1244.94</v>
+        <v>1377.96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,49 +569,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>8889</v>
+        <v>9070</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>56</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>142.79999999999998</v>
+        <f t="shared" si="3"/>
+        <v>219.29999999999998</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44161</v>
+      <c r="A6" s="12">
+        <v>44252</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>26168</v>
+        <v>26718</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D9" si="2">SUM(C6,-C8)</f>
-        <v>303</v>
+        <f t="shared" si="2"/>
+        <v>111</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>1427.1299999999999</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>522.80999999999995</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6:G8" si="3">SUM(F6,F7)</f>
-        <v>1699.9799999999998</v>
+        <f>SUM(F6,F7)</f>
+        <v>627.3599999999999</v>
       </c>
       <c r="H6" s="8">
-        <v>1699.98</v>
+        <v>627.36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,88 +620,101 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>8833</v>
+        <v>8984</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>272.84999999999997</v>
+        <f t="shared" si="4"/>
+        <v>104.55</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44125</v>
+      <c r="A8" s="12">
+        <v>43856</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>25865</v>
+        <v>26607</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>1177.5</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>965.55</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="3"/>
-        <v>1335.6</v>
+        <f>SUM(F8,F9)</f>
+        <v>1103.25</v>
       </c>
       <c r="H8" s="8">
-        <v>1335.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1103.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>8726</v>
+        <v>8943</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
-        <v>158.1</v>
+        <f t="shared" si="5"/>
+        <v>137.69999999999999</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44096</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>44190</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>25615</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+        <v>26402</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F15" si="6">D10*E10</f>
+        <v>1102.1400000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1244.94</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1244.94</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -709,69 +722,223 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>8664</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="3"/>
+        <v>8889</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="6"/>
+        <v>142.79999999999998</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="4">
+        <v>44161</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>26168</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D15" si="7">SUM(C12,-C14)</f>
+        <v>303</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="6"/>
+        <v>1427.1299999999999</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" ref="G12:G14" si="8">SUM(F12,F13)</f>
+        <v>1699.9799999999998</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1699.98</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8833</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="6"/>
+        <v>272.84999999999997</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="4">
+        <v>44125</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>25865</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="6"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="8"/>
+        <v>1335.6</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1335.6</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8726</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="6"/>
+        <v>158.1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>25615</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8664</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -92,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -161,6 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -441,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,31 +492,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44306</v>
+        <v>44340</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>26964</v>
+        <v>27307</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>0</v>
+        <v>1615.53</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>610.29</v>
+        <v>1865.4299999999998</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1255.1400000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -518,25 +525,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>9070</v>
+        <v>9168</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>249.89999999999998</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -545,22 +552,22 @@
         <v>26964</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
-        <v>246</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1158.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1377.96</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1377.96</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>610.29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -573,45 +580,45 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>219.29999999999998</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>26718</v>
+        <v>26964</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
-        <v>111</v>
+        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
+        <v>246</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>522.80999999999995</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>1158.6600000000001</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>627.3599999999999</v>
+        <v>1377.96</v>
       </c>
       <c r="H6" s="8">
-        <v>627.36</v>
+        <v>1377.96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,49 +627,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>8984</v>
+        <v>9070</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="4"/>
-        <v>104.55</v>
+        <f t="shared" si="5"/>
+        <v>219.29999999999998</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>43856</v>
+        <v>44252</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>26607</v>
+        <v>26718</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>205</v>
+        <f t="shared" si="4"/>
+        <v>111</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>965.55</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>522.80999999999995</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1103.25</v>
+        <v>627.3599999999999</v>
       </c>
       <c r="H8" s="8">
-        <v>1103.25</v>
+        <v>627.36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -671,49 +678,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>8943</v>
+        <v>8984</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="5"/>
-        <v>137.69999999999999</v>
+        <f t="shared" si="6"/>
+        <v>104.55</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44190</v>
+        <v>43856</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>26402</v>
+        <v>26607</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>234</v>
+        <f t="shared" si="4"/>
+        <v>205</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F15" si="6">D10*E10</f>
-        <v>1102.1400000000001</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>965.55</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
       <c r="H10" s="8">
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -722,49 +729,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>8889</v>
+        <v>8943</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="6"/>
-        <v>142.79999999999998</v>
+        <f t="shared" si="7"/>
+        <v>137.69999999999999</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44161</v>
+      <c r="A12" s="12">
+        <v>44190</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>26168</v>
+        <v>26402</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D15" si="7">SUM(C12,-C14)</f>
-        <v>303</v>
+        <f t="shared" si="4"/>
+        <v>234</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="6"/>
-        <v>1427.1299999999999</v>
+        <f t="shared" ref="F12:F17" si="8">D12*E12</f>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12:G14" si="8">SUM(F12,F13)</f>
-        <v>1699.9799999999998</v>
+        <f>SUM(F12,F13)</f>
+        <v>1244.94</v>
       </c>
       <c r="H12" s="8">
-        <v>1699.98</v>
+        <v>1244.94</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -773,49 +780,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>8833</v>
+        <v>8889</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="7"/>
-        <v>107</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="6"/>
-        <v>272.84999999999997</v>
+        <f t="shared" si="8"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44125</v>
+        <v>44161</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>25865</v>
+        <v>26168</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="7"/>
-        <v>250</v>
+        <f t="shared" ref="D14:D17" si="9">SUM(C14,-C16)</f>
+        <v>303</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="6"/>
-        <v>1177.5</v>
+        <f t="shared" si="8"/>
+        <v>1427.1299999999999</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="8"/>
-        <v>1335.6</v>
+        <f t="shared" ref="G14:G16" si="10">SUM(F14,F15)</f>
+        <v>1699.9799999999998</v>
       </c>
       <c r="H14" s="8">
-        <v>1335.6</v>
+        <v>1699.98</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -824,37 +831,50 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>8726</v>
+        <v>8833</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="7"/>
-        <v>62</v>
+        <f t="shared" si="9"/>
+        <v>107</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="6"/>
-        <v>158.1</v>
+        <f t="shared" si="8"/>
+        <v>272.84999999999997</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44096</v>
+        <v>44125</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>25615</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+        <v>25865</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="8"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="10"/>
+        <v>1335.6</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1335.6</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -862,18 +882,32 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>8664</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="3"/>
+        <v>8726</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="8"/>
+        <v>158.1</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>25615</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="8"/>
@@ -882,63 +916,87 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8664</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 18.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -145,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -168,6 +168,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,31 +493,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44340</v>
+        <v>44369</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>27307</v>
+        <v>27510</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>343</v>
+        <v>203</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1615.53</v>
+        <v>956.13</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1865.4299999999998</v>
-      </c>
-      <c r="H2" s="13">
-        <v>1255.1400000000001</v>
+        <v>1070.8799999999999</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1070.8800000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -525,49 +526,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>9168</v>
+        <v>9213</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>249.89999999999998</v>
+        <v>114.74999999999999</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44306</v>
+        <v>44340</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>26964</v>
+        <v>27307</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>0</v>
+        <v>1615.53</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>0</v>
+        <v>1865.4299999999998</v>
       </c>
       <c r="H4" s="13">
-        <v>610.29</v>
+        <v>1255.1400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -576,25 +577,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>9070</v>
+        <v>9168</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>249.89999999999998</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -603,22 +604,22 @@
         <v>26964</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
-        <v>246</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1158.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1377.96</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1377.96</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>610.29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,45 +632,45 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>219.29999999999998</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>26718</v>
+        <v>26964</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="4"/>
-        <v>111</v>
+        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
+        <v>246</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>522.80999999999995</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>1158.6600000000001</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>627.3599999999999</v>
+        <v>1377.96</v>
       </c>
       <c r="H8" s="8">
-        <v>627.36</v>
+        <v>1377.96</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,49 +679,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>8984</v>
+        <v>9070</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
-        <v>41</v>
+        <f t="shared" si="6"/>
+        <v>86</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="6"/>
-        <v>104.55</v>
+        <f t="shared" si="7"/>
+        <v>219.29999999999998</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>43856</v>
+        <v>44252</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>26607</v>
+        <v>26718</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="4"/>
-        <v>205</v>
+        <f t="shared" si="6"/>
+        <v>111</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>965.55</v>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
+        <v>522.80999999999995</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1103.25</v>
+        <v>627.3599999999999</v>
       </c>
       <c r="H10" s="8">
-        <v>1103.25</v>
+        <v>627.36</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -729,49 +730,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>8943</v>
+        <v>8984</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>54</v>
+        <f t="shared" si="6"/>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="7"/>
-        <v>137.69999999999999</v>
+        <f t="shared" si="8"/>
+        <v>104.55</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44190</v>
+        <v>43856</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>26402</v>
+        <v>26607</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="4"/>
-        <v>234</v>
+        <f t="shared" si="6"/>
+        <v>205</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F17" si="8">D12*E12</f>
-        <v>1102.1400000000001</v>
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>965.55</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
       <c r="H12" s="8">
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -780,49 +781,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>8889</v>
+        <v>8943</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <f t="shared" si="6"/>
+        <v>54</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="8"/>
-        <v>142.79999999999998</v>
+        <f t="shared" si="9"/>
+        <v>137.69999999999999</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44161</v>
+      <c r="A14" s="12">
+        <v>44190</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>26168</v>
+        <v>26402</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D17" si="9">SUM(C14,-C16)</f>
-        <v>303</v>
+        <f t="shared" si="6"/>
+        <v>234</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="8"/>
-        <v>1427.1299999999999</v>
+        <f t="shared" ref="F14:F19" si="10">D14*E14</f>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" ref="G14:G16" si="10">SUM(F14,F15)</f>
-        <v>1699.9799999999998</v>
+        <f>SUM(F14,F15)</f>
+        <v>1244.94</v>
       </c>
       <c r="H14" s="8">
-        <v>1699.98</v>
+        <v>1244.94</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -831,49 +832,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>8833</v>
+        <v>8889</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="9"/>
-        <v>107</v>
+        <f t="shared" si="6"/>
+        <v>56</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="8"/>
-        <v>272.84999999999997</v>
+        <f t="shared" si="10"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44125</v>
+        <v>44161</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>25865</v>
+        <v>26168</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="9"/>
-        <v>250</v>
+        <f t="shared" ref="D16:D19" si="11">SUM(C16,-C18)</f>
+        <v>303</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="8"/>
-        <v>1177.5</v>
+        <f t="shared" si="10"/>
+        <v>1427.1299999999999</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="10"/>
-        <v>1335.6</v>
+        <f t="shared" ref="G16:G18" si="12">SUM(F16,F17)</f>
+        <v>1699.9799999999998</v>
       </c>
       <c r="H16" s="8">
-        <v>1335.6</v>
+        <v>1699.98</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -882,37 +883,50 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>8726</v>
+        <v>8833</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="9"/>
-        <v>62</v>
+        <f t="shared" si="11"/>
+        <v>107</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="8"/>
-        <v>158.1</v>
+        <f t="shared" si="10"/>
+        <v>272.84999999999997</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44096</v>
+        <v>44125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>25615</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+        <v>25865</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="10"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="12"/>
+        <v>1335.6</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1335.6</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -920,18 +934,32 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>8664</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="3"/>
+        <v>8726</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="10"/>
+        <v>158.1</v>
+      </c>
+      <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>25615</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -940,63 +968,87 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8664</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 18.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -493,31 +493,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44369</v>
+        <v>44400</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>27510</v>
+        <v>27636</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>956.13</v>
+        <v>624.96</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1070.8799999999999</v>
+        <v>691.96</v>
       </c>
       <c r="H2" s="14">
-        <v>1070.8800000000001</v>
+        <v>691.96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -526,49 +526,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>9213</v>
+        <v>9238</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>114.74999999999999</v>
+        <v>67</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44340</v>
+        <v>44369</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>27307</v>
+        <v>27510</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>343</v>
+        <v>203</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1615.53</v>
+        <v>956.13</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1865.4299999999998</v>
-      </c>
-      <c r="H4" s="13">
-        <v>1255.1400000000001</v>
+        <v>1070.8799999999999</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1070.8800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,49 +577,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>9168</v>
+        <v>9213</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>249.89999999999998</v>
+        <v>114.74999999999999</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44306</v>
+        <v>44340</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>26964</v>
+        <v>27307</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>0</v>
+        <v>1615.53</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>0</v>
+        <v>1865.4299999999998</v>
       </c>
       <c r="H6" s="13">
-        <v>610.29</v>
+        <v>1255.1400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,25 +628,25 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>9070</v>
+        <v>9168</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>249.89999999999998</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -655,22 +655,22 @@
         <v>26964</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
-        <v>246</v>
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>1158.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1377.96</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1377.96</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>610.29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -683,45 +683,45 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>219.29999999999998</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>26718</v>
+        <v>26964</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="6"/>
-        <v>111</v>
+        <f t="shared" ref="D10:D17" si="8">SUM(C10,-C12)</f>
+        <v>246</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>522.80999999999995</v>
+        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
+        <v>1158.6600000000001</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>627.3599999999999</v>
+        <v>1377.96</v>
       </c>
       <c r="H10" s="8">
-        <v>627.36</v>
+        <v>1377.96</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -730,49 +730,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>8984</v>
+        <v>9070</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
-        <v>41</v>
+        <f t="shared" si="8"/>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="8"/>
-        <v>104.55</v>
+        <f t="shared" si="9"/>
+        <v>219.29999999999998</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>43856</v>
+        <v>44252</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>26607</v>
+        <v>26718</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="6"/>
-        <v>205</v>
+        <f t="shared" si="8"/>
+        <v>111</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
-        <v>965.55</v>
+        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
+        <v>522.80999999999995</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>1103.25</v>
+        <v>627.3599999999999</v>
       </c>
       <c r="H12" s="8">
-        <v>1103.25</v>
+        <v>627.36</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -781,49 +781,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>8943</v>
+        <v>8984</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="6"/>
-        <v>54</v>
+        <f t="shared" si="8"/>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="9"/>
-        <v>137.69999999999999</v>
+        <f t="shared" si="10"/>
+        <v>104.55</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44190</v>
+        <v>43856</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>26402</v>
+        <v>26607</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="6"/>
-        <v>234</v>
+        <f t="shared" si="8"/>
+        <v>205</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F19" si="10">D14*E14</f>
-        <v>1102.1400000000001</v>
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>965.55</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
       <c r="H14" s="8">
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -832,49 +832,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>8889</v>
+        <v>8943</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="6"/>
-        <v>56</v>
+        <f t="shared" si="8"/>
+        <v>54</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="10"/>
-        <v>142.79999999999998</v>
+        <f t="shared" si="11"/>
+        <v>137.69999999999999</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44161</v>
+      <c r="A16" s="12">
+        <v>44190</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>26168</v>
+        <v>26402</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D19" si="11">SUM(C16,-C18)</f>
-        <v>303</v>
+        <f t="shared" si="8"/>
+        <v>234</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="10"/>
-        <v>1427.1299999999999</v>
+        <f t="shared" ref="F16:F21" si="12">D16*E16</f>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" ref="G16:G18" si="12">SUM(F16,F17)</f>
-        <v>1699.9799999999998</v>
+        <f>SUM(F16,F17)</f>
+        <v>1244.94</v>
       </c>
       <c r="H16" s="8">
-        <v>1699.98</v>
+        <v>1244.94</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -883,49 +883,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>8833</v>
+        <v>8889</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="11"/>
-        <v>107</v>
+        <f t="shared" si="8"/>
+        <v>56</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="10"/>
-        <v>272.84999999999997</v>
+        <f t="shared" si="12"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44125</v>
+        <v>44161</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>25865</v>
+        <v>26168</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="11"/>
-        <v>250</v>
+        <f t="shared" ref="D18:D21" si="13">SUM(C18,-C20)</f>
+        <v>303</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="10"/>
-        <v>1177.5</v>
+        <f t="shared" si="12"/>
+        <v>1427.1299999999999</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="12"/>
-        <v>1335.6</v>
+        <f t="shared" ref="G18:G20" si="14">SUM(F18,F19)</f>
+        <v>1699.9799999999998</v>
       </c>
       <c r="H18" s="8">
-        <v>1335.6</v>
+        <v>1699.98</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -934,37 +934,50 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>8726</v>
+        <v>8833</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="11"/>
-        <v>62</v>
+        <f t="shared" si="13"/>
+        <v>107</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="10"/>
-        <v>158.1</v>
+        <f t="shared" si="12"/>
+        <v>272.84999999999997</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>44096</v>
+        <v>44125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>25615</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+        <v>25865</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="13"/>
+        <v>250</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="12"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="14"/>
+        <v>1335.6</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1335.6</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -972,18 +985,32 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>8664</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="3"/>
+        <v>8726</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="13"/>
+        <v>62</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="12"/>
+        <v>158.1</v>
+      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>25615</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -992,63 +1019,87 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8664</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="10"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\13.08.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -493,7 +493,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44400</v>
+        <v>44433</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -503,21 +503,21 @@
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>624.96</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>691.96</v>
+        <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>691.96</v>
+        <v>882.32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,45 +530,45 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44369</v>
+        <v>44400</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>27510</v>
+        <v>27636</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="E4" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>956.13</v>
+        <v>624.96</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1070.8799999999999</v>
+        <v>691.96</v>
       </c>
       <c r="H4" s="14">
-        <v>1070.8800000000001</v>
+        <v>691.96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,49 +577,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>9213</v>
+        <v>9238</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>114.74999999999999</v>
+        <v>67</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44340</v>
+        <v>44369</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>27307</v>
+        <v>27510</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>343</v>
+        <v>203</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1615.53</v>
+        <v>956.13</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1865.4299999999998</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1255.1400000000001</v>
+        <v>1070.8799999999999</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1070.8800000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,49 +628,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>9168</v>
+        <v>9213</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>249.89999999999998</v>
+        <v>114.74999999999999</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44306</v>
+        <v>44340</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>26964</v>
+        <v>27307</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>0</v>
+        <v>1615.53</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>0</v>
+        <v>1865.4299999999998</v>
       </c>
       <c r="H8" s="13">
-        <v>610.29</v>
+        <v>1255.1400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,25 +679,25 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>9070</v>
+        <v>9168</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>249.89999999999998</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
@@ -706,22 +706,22 @@
         <v>26964</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D17" si="8">SUM(C10,-C12)</f>
-        <v>246</v>
+        <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="9">D10*E10</f>
-        <v>1158.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1377.96</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1377.96</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>610.29</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -734,45 +734,45 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="8"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="9"/>
-        <v>219.29999999999998</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>26718</v>
+        <v>26964</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="8"/>
-        <v>111</v>
+        <f t="shared" ref="D12:D19" si="10">SUM(C12,-C14)</f>
+        <v>246</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>522.80999999999995</v>
+        <f t="shared" ref="F12:F13" si="11">D12*E12</f>
+        <v>1158.6600000000001</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>627.3599999999999</v>
+        <v>1377.96</v>
       </c>
       <c r="H12" s="8">
-        <v>627.36</v>
+        <v>1377.96</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -781,49 +781,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>8984</v>
+        <v>9070</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="8"/>
-        <v>41</v>
+        <f t="shared" si="10"/>
+        <v>86</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="10"/>
-        <v>104.55</v>
+        <f t="shared" si="11"/>
+        <v>219.29999999999998</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>43856</v>
+        <v>44252</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>26607</v>
+        <v>26718</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="8"/>
-        <v>205</v>
+        <f t="shared" si="10"/>
+        <v>111</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
-        <v>965.55</v>
+        <f t="shared" ref="F14:F15" si="12">D14*E14</f>
+        <v>522.80999999999995</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>1103.25</v>
+        <v>627.3599999999999</v>
       </c>
       <c r="H14" s="8">
-        <v>1103.25</v>
+        <v>627.36</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -832,49 +832,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>8943</v>
+        <v>8984</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="8"/>
-        <v>54</v>
+        <f t="shared" si="10"/>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="11"/>
-        <v>137.69999999999999</v>
+        <f t="shared" si="12"/>
+        <v>104.55</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44190</v>
+        <v>43856</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>26402</v>
+        <v>26607</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="8"/>
-        <v>234</v>
+        <f t="shared" si="10"/>
+        <v>205</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F21" si="12">D16*E16</f>
-        <v>1102.1400000000001</v>
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>965.55</v>
       </c>
       <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
       <c r="H16" s="8">
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -883,49 +883,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>8889</v>
+        <v>8943</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="8"/>
-        <v>56</v>
+        <f t="shared" si="10"/>
+        <v>54</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="12"/>
-        <v>142.79999999999998</v>
+        <f t="shared" si="13"/>
+        <v>137.69999999999999</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44161</v>
+      <c r="A18" s="12">
+        <v>44190</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>26168</v>
+        <v>26402</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D21" si="13">SUM(C18,-C20)</f>
-        <v>303</v>
+        <f t="shared" si="10"/>
+        <v>234</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="12"/>
-        <v>1427.1299999999999</v>
+        <f t="shared" ref="F18:F23" si="14">D18*E18</f>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" ref="G18:G20" si="14">SUM(F18,F19)</f>
-        <v>1699.9799999999998</v>
+        <f>SUM(F18,F19)</f>
+        <v>1244.94</v>
       </c>
       <c r="H18" s="8">
-        <v>1699.98</v>
+        <v>1244.94</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -934,49 +934,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>8833</v>
+        <v>8889</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="13"/>
-        <v>107</v>
+        <f t="shared" si="10"/>
+        <v>56</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="12"/>
-        <v>272.84999999999997</v>
+        <f t="shared" si="14"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>44125</v>
+        <v>44161</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>25865</v>
+        <v>26168</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="13"/>
-        <v>250</v>
+        <f t="shared" ref="D20:D23" si="15">SUM(C20,-C22)</f>
+        <v>303</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="12"/>
-        <v>1177.5</v>
+        <f t="shared" si="14"/>
+        <v>1427.1299999999999</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="14"/>
-        <v>1335.6</v>
+        <f t="shared" ref="G20:G22" si="16">SUM(F20,F21)</f>
+        <v>1699.9799999999998</v>
       </c>
       <c r="H20" s="8">
-        <v>1335.6</v>
+        <v>1699.98</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,37 +985,50 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>8726</v>
+        <v>8833</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="13"/>
-        <v>62</v>
+        <f t="shared" si="15"/>
+        <v>107</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="12"/>
-        <v>158.1</v>
+        <f t="shared" si="14"/>
+        <v>272.84999999999997</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>44096</v>
+        <v>44125</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>25615</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+        <v>25865</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="15"/>
+        <v>250</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="14"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="16"/>
+        <v>1335.6</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1335.6</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1023,18 +1036,32 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>8664</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="3"/>
+        <v>8726</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="15"/>
+        <v>62</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="14"/>
+        <v>158.1</v>
+      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>25615</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="8"/>
@@ -1043,63 +1070,87 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8664</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\13.08.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,31 +493,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44433</v>
+        <v>44463</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>27636</v>
+        <v>28106</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>0</v>
+        <v>2331.1999999999998</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>0</v>
+        <v>2623.3199999999997</v>
       </c>
       <c r="H2" s="14">
-        <v>882.32</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -526,25 +526,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>9238</v>
+        <v>9347</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>292.12</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44400</v>
+        <v>44433</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -554,21 +554,21 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>624.96</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>691.96</v>
+        <v>0</v>
       </c>
       <c r="H4" s="14">
-        <v>691.96</v>
+        <v>882.32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,45 +581,45 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44369</v>
+        <v>44400</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>27510</v>
+        <v>27636</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="E6" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>956.13</v>
+        <v>624.96</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1070.8799999999999</v>
+        <v>691.96</v>
       </c>
       <c r="H6" s="14">
-        <v>1070.8800000000001</v>
+        <v>691.96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,49 +628,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>9213</v>
+        <v>9238</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>114.74999999999999</v>
+        <v>67</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44340</v>
+        <v>44369</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>27307</v>
+        <v>27510</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>343</v>
+        <v>203</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>1615.53</v>
+        <v>956.13</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1865.4299999999998</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1255.1400000000001</v>
+        <v>1070.8799999999999</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1070.8800000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,49 +679,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>9168</v>
+        <v>9213</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>249.89999999999998</v>
+        <v>114.74999999999999</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44306</v>
+        <v>44340</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>26964</v>
+        <v>27307</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="9">D10*E10</f>
-        <v>0</v>
+        <v>1615.53</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>0</v>
+        <v>1865.4299999999998</v>
       </c>
       <c r="H10" s="13">
-        <v>610.29</v>
+        <v>1255.1400000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -730,25 +730,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>9070</v>
+        <v>9168</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>249.89999999999998</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
@@ -757,22 +757,22 @@
         <v>26964</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D19" si="10">SUM(C12,-C14)</f>
-        <v>246</v>
+        <f t="shared" ref="D12:D13" si="10">SUM(C12,-C14)</f>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="11">D12*E12</f>
-        <v>1158.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>1377.96</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1377.96</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>610.29</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -785,45 +785,45 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="10"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="11"/>
-        <v>219.29999999999998</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>26718</v>
+        <v>26964</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="10"/>
-        <v>111</v>
+        <f t="shared" ref="D14:D21" si="12">SUM(C14,-C16)</f>
+        <v>246</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>522.80999999999995</v>
+        <f t="shared" ref="F14:F15" si="13">D14*E14</f>
+        <v>1158.6600000000001</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>627.3599999999999</v>
+        <v>1377.96</v>
       </c>
       <c r="H14" s="8">
-        <v>627.36</v>
+        <v>1377.96</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -832,49 +832,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>8984</v>
+        <v>9070</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="10"/>
-        <v>41</v>
+        <f t="shared" si="12"/>
+        <v>86</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="12"/>
-        <v>104.55</v>
+        <f t="shared" si="13"/>
+        <v>219.29999999999998</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>43856</v>
+        <v>44252</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>26607</v>
+        <v>26718</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="10"/>
-        <v>205</v>
+        <f t="shared" si="12"/>
+        <v>111</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
-        <v>965.55</v>
+        <f t="shared" ref="F16:F17" si="14">D16*E16</f>
+        <v>522.80999999999995</v>
       </c>
       <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
-        <v>1103.25</v>
+        <v>627.3599999999999</v>
       </c>
       <c r="H16" s="8">
-        <v>1103.25</v>
+        <v>627.36</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -883,49 +883,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>8943</v>
+        <v>8984</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="10"/>
-        <v>54</v>
+        <f t="shared" si="12"/>
+        <v>41</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="13"/>
-        <v>137.69999999999999</v>
+        <f t="shared" si="14"/>
+        <v>104.55</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>44190</v>
+        <v>43856</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>26402</v>
+        <v>26607</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="10"/>
-        <v>234</v>
+        <f t="shared" si="12"/>
+        <v>205</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F23" si="14">D18*E18</f>
-        <v>1102.1400000000001</v>
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>965.55</v>
       </c>
       <c r="G18" s="8">
         <f>SUM(F18,F19)</f>
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
       <c r="H18" s="8">
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -934,49 +934,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>8889</v>
+        <v>8943</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="10"/>
-        <v>56</v>
+        <f t="shared" si="12"/>
+        <v>54</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="14"/>
-        <v>142.79999999999998</v>
+        <f t="shared" si="15"/>
+        <v>137.69999999999999</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44161</v>
+      <c r="A20" s="12">
+        <v>44190</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>26168</v>
+        <v>26402</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" ref="D20:D23" si="15">SUM(C20,-C22)</f>
-        <v>303</v>
+        <f t="shared" si="12"/>
+        <v>234</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="14"/>
-        <v>1427.1299999999999</v>
+        <f t="shared" ref="F20:F25" si="16">D20*E20</f>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" ref="G20:G22" si="16">SUM(F20,F21)</f>
-        <v>1699.9799999999998</v>
+        <f>SUM(F20,F21)</f>
+        <v>1244.94</v>
       </c>
       <c r="H20" s="8">
-        <v>1699.98</v>
+        <v>1244.94</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,49 +985,49 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>8833</v>
+        <v>8889</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="15"/>
-        <v>107</v>
+        <f t="shared" si="12"/>
+        <v>56</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="14"/>
-        <v>272.84999999999997</v>
+        <f t="shared" si="16"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>44125</v>
+        <v>44161</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>25865</v>
+        <v>26168</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="15"/>
-        <v>250</v>
+        <f t="shared" ref="D22:D25" si="17">SUM(C22,-C24)</f>
+        <v>303</v>
       </c>
       <c r="E22" s="3">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="14"/>
-        <v>1177.5</v>
+        <f t="shared" si="16"/>
+        <v>1427.1299999999999</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="16"/>
-        <v>1335.6</v>
+        <f t="shared" ref="G22:G24" si="18">SUM(F22,F23)</f>
+        <v>1699.9799999999998</v>
       </c>
       <c r="H22" s="8">
-        <v>1335.6</v>
+        <v>1699.98</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,37 +1036,50 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>8726</v>
+        <v>8833</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="15"/>
-        <v>62</v>
+        <f t="shared" si="17"/>
+        <v>107</v>
       </c>
       <c r="E23" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="14"/>
-        <v>158.1</v>
+        <f t="shared" si="16"/>
+        <v>272.84999999999997</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>44096</v>
+        <v>44125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>25615</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+        <v>25865</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="16"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="18"/>
+        <v>1335.6</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1335.6</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -1074,18 +1087,32 @@
         <v>9</v>
       </c>
       <c r="C25" s="3">
-        <v>8664</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="3"/>
+        <v>8726</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="17"/>
+        <v>62</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="16"/>
+        <v>158.1</v>
+      </c>
+      <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3">
+        <v>25615</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -1094,63 +1121,87 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8664</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="10"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44463</v>
+        <v>44494</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -503,21 +503,21 @@
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2331.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>2623.3199999999997</v>
+        <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>1653</v>
+        <v>1705.29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,45 +530,45 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>292.12</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44433</v>
+        <v>44463</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>27636</v>
+        <v>28106</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="E4" s="3">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>0</v>
+        <v>2331.1999999999998</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>0</v>
+        <v>2623.3199999999997</v>
       </c>
       <c r="H4" s="14">
-        <v>882.32</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,25 +577,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>9238</v>
+        <v>9347</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E5" s="3">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>292.12</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44400</v>
+        <v>44433</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -605,21 +605,21 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>4.96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>624.96</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>691.96</v>
+        <v>0</v>
       </c>
       <c r="H6" s="14">
-        <v>691.96</v>
+        <v>882.32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -632,45 +632,45 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>2.68</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44369</v>
+        <v>44400</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>27510</v>
+        <v>27636</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="E8" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>956.13</v>
+        <v>624.96</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1070.8799999999999</v>
+        <v>691.96</v>
       </c>
       <c r="H8" s="14">
-        <v>1070.8800000000001</v>
+        <v>691.96</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,49 +679,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>9213</v>
+        <v>9238</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>114.74999999999999</v>
+        <v>67</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44340</v>
+        <v>44369</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>27307</v>
+        <v>27510</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
-        <v>343</v>
+        <v>203</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="9">D10*E10</f>
-        <v>1615.53</v>
+        <v>956.13</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1865.4299999999998</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1255.1400000000001</v>
+        <v>1070.8799999999999</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1070.8800000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -730,49 +730,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>9168</v>
+        <v>9213</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="8"/>
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="9"/>
-        <v>249.89999999999998</v>
+        <v>114.74999999999999</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44306</v>
+        <v>44340</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>26964</v>
+        <v>27307</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ref="D12:D13" si="10">SUM(C12,-C14)</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="11">D12*E12</f>
-        <v>0</v>
+        <v>1615.53</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>0</v>
+        <v>1865.4299999999998</v>
       </c>
       <c r="H12" s="13">
-        <v>610.29</v>
+        <v>1255.1400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -781,25 +781,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>9070</v>
+        <v>9168</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>249.89999999999998</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
@@ -808,22 +808,22 @@
         <v>26964</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D21" si="12">SUM(C14,-C16)</f>
-        <v>246</v>
+        <f t="shared" ref="D14:D15" si="12">SUM(C14,-C16)</f>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="13">D14*E14</f>
-        <v>1158.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>1377.96</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1377.96</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>610.29</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -836,45 +836,45 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="12"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="13"/>
-        <v>219.29999999999998</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>26718</v>
+        <v>26964</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="12"/>
-        <v>111</v>
+        <f t="shared" ref="D16:D23" si="14">SUM(C16,-C18)</f>
+        <v>246</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="14">D16*E16</f>
-        <v>522.80999999999995</v>
+        <f t="shared" ref="F16:F17" si="15">D16*E16</f>
+        <v>1158.6600000000001</v>
       </c>
       <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
-        <v>627.3599999999999</v>
+        <v>1377.96</v>
       </c>
       <c r="H16" s="8">
-        <v>627.36</v>
+        <v>1377.96</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -883,49 +883,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>8984</v>
+        <v>9070</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="12"/>
-        <v>41</v>
+        <f t="shared" si="14"/>
+        <v>86</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="14"/>
-        <v>104.55</v>
+        <f t="shared" si="15"/>
+        <v>219.29999999999998</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>43856</v>
+        <v>44252</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>26607</v>
+        <v>26718</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="12"/>
-        <v>205</v>
+        <f t="shared" si="14"/>
+        <v>111</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
-        <v>965.55</v>
+        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
+        <v>522.80999999999995</v>
       </c>
       <c r="G18" s="8">
         <f>SUM(F18,F19)</f>
-        <v>1103.25</v>
+        <v>627.3599999999999</v>
       </c>
       <c r="H18" s="8">
-        <v>1103.25</v>
+        <v>627.36</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -934,49 +934,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>8943</v>
+        <v>8984</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="12"/>
-        <v>54</v>
+        <f t="shared" si="14"/>
+        <v>41</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="15"/>
-        <v>137.69999999999999</v>
+        <f t="shared" si="16"/>
+        <v>104.55</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>44190</v>
+        <v>43856</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>26402</v>
+        <v>26607</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="12"/>
-        <v>234</v>
+        <f t="shared" si="14"/>
+        <v>205</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F25" si="16">D20*E20</f>
-        <v>1102.1400000000001</v>
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>965.55</v>
       </c>
       <c r="G20" s="8">
         <f>SUM(F20,F21)</f>
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
       <c r="H20" s="8">
-        <v>1244.94</v>
+        <v>1103.25</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,49 +985,49 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>8889</v>
+        <v>8943</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="12"/>
-        <v>56</v>
+        <f t="shared" si="14"/>
+        <v>54</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="16"/>
-        <v>142.79999999999998</v>
+        <f t="shared" si="17"/>
+        <v>137.69999999999999</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44161</v>
+      <c r="A22" s="12">
+        <v>44190</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>26168</v>
+        <v>26402</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ref="D22:D25" si="17">SUM(C22,-C24)</f>
-        <v>303</v>
+        <f t="shared" si="14"/>
+        <v>234</v>
       </c>
       <c r="E22" s="3">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="16"/>
-        <v>1427.1299999999999</v>
+        <f t="shared" ref="F22:F27" si="18">D22*E22</f>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" ref="G22:G24" si="18">SUM(F22,F23)</f>
-        <v>1699.9799999999998</v>
+        <f>SUM(F22,F23)</f>
+        <v>1244.94</v>
       </c>
       <c r="H22" s="8">
-        <v>1699.98</v>
+        <v>1244.94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,49 +1036,49 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>8833</v>
+        <v>8889</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="17"/>
-        <v>107</v>
+        <f t="shared" si="14"/>
+        <v>56</v>
       </c>
       <c r="E23" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="16"/>
-        <v>272.84999999999997</v>
+        <f t="shared" si="18"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>44125</v>
+        <v>44161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>25865</v>
+        <v>26168</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="17"/>
-        <v>250</v>
+        <f t="shared" ref="D24:D27" si="19">SUM(C24,-C26)</f>
+        <v>303</v>
       </c>
       <c r="E24" s="3">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="16"/>
-        <v>1177.5</v>
+        <f t="shared" si="18"/>
+        <v>1427.1299999999999</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="18"/>
-        <v>1335.6</v>
+        <f t="shared" ref="G24:G26" si="20">SUM(F24,F25)</f>
+        <v>1699.9799999999998</v>
       </c>
       <c r="H24" s="8">
-        <v>1335.6</v>
+        <v>1699.98</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,37 +1087,50 @@
         <v>9</v>
       </c>
       <c r="C25" s="3">
-        <v>8726</v>
+        <v>8833</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="17"/>
-        <v>62</v>
+        <f t="shared" si="19"/>
+        <v>107</v>
       </c>
       <c r="E25" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="16"/>
-        <v>158.1</v>
+        <f t="shared" si="18"/>
+        <v>272.84999999999997</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>44096</v>
+        <v>44125</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>25615</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+        <v>25865</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="19"/>
+        <v>250</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="18"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="20"/>
+        <v>1335.6</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1335.6</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -1125,18 +1138,32 @@
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>8664</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="3"/>
+        <v>8726</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="19"/>
+        <v>62</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="18"/>
+        <v>158.1</v>
+      </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>25615</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="8"/>
@@ -1145,63 +1172,87 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>8664</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="10"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/189ee.xlsx
+++ b/sputnik/personal/ee/189ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 16.12.2021\16.12.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 16.12.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,14 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -145,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -169,6 +177,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,12 +502,12 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44494</v>
+        <v>44550</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="15">
         <v>28106</v>
       </c>
       <c r="D2" s="3">
@@ -517,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>1705.29</v>
+        <v>761.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -525,7 +534,7 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="15">
         <v>9347</v>
       </c>
       <c r="D3" s="3">
@@ -544,7 +553,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44463</v>
+        <v>44524</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -554,21 +563,21 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>2331.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>2623.3199999999997</v>
+        <v>0</v>
       </c>
       <c r="H4" s="14">
-        <v>1653</v>
+        <v>769.65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,27 +590,27 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>292.12</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44433</v>
+        <v>44494</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>27636</v>
+        <v>28106</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
@@ -619,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="14">
-        <v>882.32</v>
+        <v>1705.29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>9238</v>
+        <v>9347</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
@@ -646,31 +655,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44400</v>
+        <v>44463</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>27636</v>
+        <v>28106</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>126</v>
+        <v>470</v>
       </c>
       <c r="E8" s="3">
         <v>4.96</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>624.96</v>
+        <v>2331.1999999999998</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>691.96</v>
+        <v>2623.3199999999997</v>
       </c>
       <c r="H8" s="14">
-        <v>691.96</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,49 +688,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>9238</v>
+        <v>9347</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E9" s="3">
         <v>2.68</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>292.12</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44369</v>
+        <v>44433</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>27510</v>
+        <v>27636</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="9">D10*E10</f>
-        <v>956.13</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1070.8799999999999</v>
+        <v>0</v>
       </c>
       <c r="H10" s="14">
-        <v>1070.8800000000001</v>
+        <v>882.32</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -730,49 +739,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>9213</v>
+        <v>9238</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="9"/>
-        <v>114.74999999999999</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44340</v>
+        <v>44400</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>27307</v>
+        <v>27636</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ref="D12:D13" si="10">SUM(C12,-C14)</f>
-        <v>343</v>
+        <v>126</v>
       </c>
       <c r="E12" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="11">D12*E12</f>
-        <v>1615.53</v>
+        <v>624.96</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>1865.4299999999998</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1255.1400000000001</v>
+        <v>691.96</v>
+      </c>
+      <c r="H12" s="14">
+        <v>691.96</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -781,49 +790,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>9168</v>
+        <v>9238</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="10"/>
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="11"/>
-        <v>249.89999999999998</v>
+        <v>67</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44306</v>
+        <v>44369</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>26964</v>
+        <v>27510</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ref="D14:D15" si="12">SUM(C14,-C16)</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="13">D14*E14</f>
-        <v>0</v>
+        <v>956.13</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>610.29</v>
+        <v>1070.8799999999999</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1070.8800000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -832,49 +841,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>9070</v>
+        <v>9213</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>114.74999999999999</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44280</v>
+        <v>44340</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>26964</v>
+        <v>27307</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D23" si="14">SUM(C16,-C18)</f>
-        <v>246</v>
+        <f t="shared" ref="D16:D17" si="14">SUM(C16,-C18)</f>
+        <v>343</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="15">D16*E16</f>
-        <v>1158.6600000000001</v>
+        <v>1615.53</v>
       </c>
       <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
-        <v>1377.96</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1377.96</v>
+        <v>1865.4299999999998</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1255.1400000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -883,49 +892,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>9070</v>
+        <v>9168</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="14"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="15"/>
-        <v>219.29999999999998</v>
+        <v>249.89999999999998</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>44252</v>
+        <v>44306</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>26718</v>
+        <v>26964</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="14"/>
-        <v>111</v>
+        <f t="shared" ref="D18:D19" si="16">SUM(C18,-C20)</f>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>522.80999999999995</v>
+        <f t="shared" ref="F18:F19" si="17">D18*E18</f>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
         <f>SUM(F18,F19)</f>
-        <v>627.3599999999999</v>
-      </c>
-      <c r="H18" s="8">
-        <v>627.36</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>610.29</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -934,49 +943,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>8984</v>
+        <v>9070</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="14"/>
-        <v>41</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="16"/>
-        <v>104.55</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>43856</v>
+        <v>44280</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>26607</v>
+        <v>26964</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="14"/>
-        <v>205</v>
+        <f t="shared" ref="D20:D27" si="18">SUM(C20,-C22)</f>
+        <v>246</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
-        <v>965.55</v>
+        <f t="shared" ref="F20:F21" si="19">D20*E20</f>
+        <v>1158.6600000000001</v>
       </c>
       <c r="G20" s="8">
         <f>SUM(F20,F21)</f>
-        <v>1103.25</v>
+        <v>1377.96</v>
       </c>
       <c r="H20" s="8">
-        <v>1103.25</v>
+        <v>1377.96</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,49 +994,49 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>8943</v>
+        <v>9070</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="14"/>
-        <v>54</v>
+        <f t="shared" si="18"/>
+        <v>86</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="17"/>
-        <v>137.69999999999999</v>
+        <f t="shared" si="19"/>
+        <v>219.29999999999998</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>44190</v>
+        <v>44252</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>26402</v>
+        <v>26718</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="14"/>
-        <v>234</v>
+        <f t="shared" si="18"/>
+        <v>111</v>
       </c>
       <c r="E22" s="3">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22:F27" si="18">D22*E22</f>
-        <v>1102.1400000000001</v>
+        <f t="shared" ref="F22:F23" si="20">D22*E22</f>
+        <v>522.80999999999995</v>
       </c>
       <c r="G22" s="8">
         <f>SUM(F22,F23)</f>
-        <v>1244.94</v>
+        <v>627.3599999999999</v>
       </c>
       <c r="H22" s="8">
-        <v>1244.94</v>
+        <v>627.36</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,49 +1045,49 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>8889</v>
+        <v>8984</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="14"/>
-        <v>56</v>
+        <f t="shared" si="18"/>
+        <v>41</v>
       </c>
       <c r="E23" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="18"/>
-        <v>142.79999999999998</v>
+        <f t="shared" si="20"/>
+        <v>104.55</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44161</v>
+      <c r="A24" s="12">
+        <v>43856</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>26168</v>
+        <v>26607</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" ref="D24:D27" si="19">SUM(C24,-C26)</f>
-        <v>303</v>
+        <f t="shared" si="18"/>
+        <v>205</v>
       </c>
       <c r="E24" s="3">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="18"/>
-        <v>1427.1299999999999</v>
+        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
+        <v>965.55</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" ref="G24:G26" si="20">SUM(F24,F25)</f>
-        <v>1699.9799999999998</v>
+        <f>SUM(F24,F25)</f>
+        <v>1103.25</v>
       </c>
       <c r="H24" s="8">
-        <v>1699.98</v>
+        <v>1103.25</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,49 +1096,49 @@
         <v>9</v>
       </c>
       <c r="C25" s="3">
-        <v>8833</v>
+        <v>8943</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="19"/>
-        <v>107</v>
+        <f t="shared" si="18"/>
+        <v>54</v>
       </c>
       <c r="E25" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="18"/>
-        <v>272.84999999999997</v>
+        <f t="shared" si="21"/>
+        <v>137.69999999999999</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>44125</v>
+      <c r="A26" s="12">
+        <v>44190</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>25865</v>
+        <v>26402</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="19"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>234</v>
       </c>
       <c r="E26" s="3">
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="18"/>
-        <v>1177.5</v>
+        <f t="shared" ref="F26:F31" si="22">D26*E26</f>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="20"/>
-        <v>1335.6</v>
+        <f>SUM(F26,F27)</f>
+        <v>1244.94</v>
       </c>
       <c r="H26" s="8">
-        <v>1335.6</v>
+        <v>1244.94</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1138,37 +1147,50 @@
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>8726</v>
+        <v>8889</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="19"/>
-        <v>62</v>
+        <f t="shared" si="18"/>
+        <v>56</v>
       </c>
       <c r="E27" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="18"/>
-        <v>158.1</v>
+        <f t="shared" si="22"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>44096</v>
+        <v>44161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3">
-        <v>25615</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+        <v>26168</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D31" si="23">SUM(C28,-C30)</f>
+        <v>303</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="22"/>
+        <v>1427.1299999999999</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" ref="G28:G30" si="24">SUM(F28,F29)</f>
+        <v>1699.9799999999998</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1699.98</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -1176,83 +1198,178 @@
         <v>9</v>
       </c>
       <c r="C29" s="3">
-        <v>8664</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="3"/>
+        <v>8833</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="23"/>
+        <v>107</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="22"/>
+        <v>272.84999999999997</v>
+      </c>
+      <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="A30" s="4">
+        <v>44125</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3">
+        <v>25865</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="23"/>
+        <v>250</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="22"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="24"/>
+        <v>1335.6</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1335.6</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="8"/>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8726</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="23"/>
+        <v>62</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="22"/>
+        <v>158.1</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
+      <c r="A32" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>25615</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8664</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8">
+        <f>SUM(G4:G33)</f>
+        <v>13640.68</v>
+      </c>
+      <c r="H34" s="8">
+        <f>SUM(H4:H33)</f>
+        <v>16027.620000000003</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
